--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30395.32541027078</v>
+        <v>6048669.756643889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30395.32541027078</v>
+        <v>6048669.756643889</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10379.62822668279</v>
+        <v>622777.6936009673</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10379.62822668279</v>
+        <v>622777.6936009673</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112203458.951198</v>
+        <v>45041207.15899923</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9688.541325063741</v>
+        <v>1014355.063430891</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18765.58776371195</v>
+        <v>1927403.417672022</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27842.63420236015</v>
+        <v>2840451.771913154</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37386.35499597267</v>
+        <v>3723537.134676905</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46930.07578958518</v>
+        <v>4606622.497440658</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56115.80930619869</v>
+        <v>5519733.888449464</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65301.22605513546</v>
+        <v>6432782.242690591</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75289.2153075197</v>
+        <v>7380362.905728703</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84668.70003564605</v>
+        <v>8228502.168555466</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94221.71395370699</v>
+        <v>9111173.740179215</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103407.1307026437</v>
+        <v>10024222.09442035</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112592.5474515805</v>
+        <v>10937270.44866149</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121777.9642005172</v>
+        <v>11850318.80290262</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131321.3682264529</v>
+        <v>12733341.1288987</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140865.0890200655</v>
+        <v>13616426.49166246</v>
       </c>
     </row>
   </sheetData>
